--- a/data/case24_ieee_rts_AC.xlsx
+++ b/data/case24_ieee_rts_AC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samho\Desktop\PhD\DC OPF\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D43C68-ED88-40DC-A198-8F8FEE33A321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E947621-0E29-4218-932A-1E7B31DC94C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33480" yWindow="-120" windowWidth="25440" windowHeight="15270" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11380" windowHeight="13370" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hvdc" sheetId="13" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="366">
   <si>
     <t>name</t>
   </si>
@@ -1133,16 +1133,19 @@
     <t>marginal_cost</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>MTDC</t>
+  </si>
+  <si>
     <t>Western_Link</t>
   </si>
   <si>
     <t>GB</t>
   </si>
   <si>
-    <t>Netherlands_HVDC</t>
-  </si>
-  <si>
-    <t>Non-GB</t>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -1421,13 +1424,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1745,7 +1748,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1799,7 +1802,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1838,7 +1841,7 @@
         <v>1E-4</v>
       </c>
       <c r="N2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1846,10 +1849,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B3">
-        <v>24</v>
+        <v>361</v>
+      </c>
+      <c r="B3" t="s">
+        <v>365</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -1885,7 +1888,7 @@
         <v>1E-4</v>
       </c>
       <c r="N3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O3">
         <v>20</v>
@@ -1937,25 +1940,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
     </row>
     <row r="2" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
@@ -3503,34 +3506,34 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="22">
         <v>1</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="22">
         <v>1</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="23">
         <v>1.05</v>
       </c>
-      <c r="F25" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="23" t="s">
+      <c r="F25" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="24" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/case24_ieee_rts_AC.xlsx
+++ b/data/case24_ieee_rts_AC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samho\Desktop\PhD\DC OPF\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C9B87F-6E70-48BC-9819-F03FDC96B944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE89C49-59A7-404D-946F-DD0C6FAF4BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="1690" windowWidth="18940" windowHeight="10850" tabRatio="500" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hvdc" sheetId="13" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="176">
   <si>
     <t>name</t>
   </si>
@@ -101,12 +101,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t>37</t>
   </si>
   <si>
-    <t>175</t>
-  </si>
-  <si>
     <t>from_busname</t>
   </si>
   <si>
@@ -188,18 +179,6 @@
     <t>L1-12</t>
   </si>
   <si>
-    <t>0.0026</t>
-  </si>
-  <si>
-    <t>0.0139</t>
-  </si>
-  <si>
-    <t>0.4611</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>-360</t>
   </si>
   <si>
@@ -209,30 +188,9 @@
     <t>L2-13</t>
   </si>
   <si>
-    <t>0.0546</t>
-  </si>
-  <si>
-    <t>0.2112</t>
-  </si>
-  <si>
-    <t>0.0572</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
     <t>L3-15</t>
   </si>
   <si>
-    <t>0.0218</t>
-  </si>
-  <si>
-    <t>0.0845</t>
-  </si>
-  <si>
-    <t>0.0229</t>
-  </si>
-  <si>
     <t>PhaseShift</t>
   </si>
   <si>
@@ -359,18 +317,9 @@
     <t>G1</t>
   </si>
   <si>
-    <t>1.035</t>
-  </si>
-  <si>
     <t>Coal</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>400.6849</t>
-  </si>
-  <si>
     <t>baseMVA</t>
   </si>
   <si>
@@ -426,6 +375,207 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>L4-24</t>
+  </si>
+  <si>
+    <t>L5-26</t>
+  </si>
+  <si>
+    <t>L6-39</t>
+  </si>
+  <si>
+    <t>L7-49</t>
+  </si>
+  <si>
+    <t>L8-510</t>
+  </si>
+  <si>
+    <t>L9-610</t>
+  </si>
+  <si>
+    <t>L10-78</t>
+  </si>
+  <si>
+    <t>L11-89</t>
+  </si>
+  <si>
+    <t>L12-810</t>
+  </si>
+  <si>
+    <t>L13-1113</t>
+  </si>
+  <si>
+    <t>L14-1114</t>
+  </si>
+  <si>
+    <t>L15-1213</t>
+  </si>
+  <si>
+    <t>L16-1223</t>
+  </si>
+  <si>
+    <t>L17-1323</t>
+  </si>
+  <si>
+    <t>L18-1416</t>
+  </si>
+  <si>
+    <t>L19-1516</t>
+  </si>
+  <si>
+    <t>L20-1521</t>
+  </si>
+  <si>
+    <t>L21-1521</t>
+  </si>
+  <si>
+    <t>L22-1524</t>
+  </si>
+  <si>
+    <t>L23-1617</t>
+  </si>
+  <si>
+    <t>L24-1619</t>
+  </si>
+  <si>
+    <t>L25-1718</t>
+  </si>
+  <si>
+    <t>L26-1722</t>
+  </si>
+  <si>
+    <t>L27-1821</t>
+  </si>
+  <si>
+    <t>L28-1821</t>
+  </si>
+  <si>
+    <t>L29-1920</t>
+  </si>
+  <si>
+    <t>L30-1920</t>
+  </si>
+  <si>
+    <t>L31-2023</t>
+  </si>
+  <si>
+    <t>L32-2023</t>
+  </si>
+  <si>
+    <t>L33-2122</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>G13</t>
+  </si>
+  <si>
+    <t>G14</t>
+  </si>
+  <si>
+    <t>G15</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>G16</t>
+  </si>
+  <si>
+    <t>G17</t>
+  </si>
+  <si>
+    <t>G18</t>
+  </si>
+  <si>
+    <t>G19</t>
+  </si>
+  <si>
+    <t>G20</t>
+  </si>
+  <si>
+    <t>G21</t>
+  </si>
+  <si>
+    <t>G22</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F45778F-8D79-4B69-AE3A-F144DB1573E9}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1038,54 +1188,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" t="s">
-        <v>43</v>
-      </c>
       <c r="M1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="N1" t="s">
         <v>2</v>
       </c>
       <c r="O1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1121,7 +1271,7 @@
         <v>1E-4</v>
       </c>
       <c r="N2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1129,10 +1279,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1168,7 +1318,7 @@
         <v>1E-4</v>
       </c>
       <c r="N3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="O3">
         <v>20</v>
@@ -1192,7 +1342,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -1221,7 +1371,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B1" s="25" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -1242,16 +1392,16 @@
     </row>
     <row r="2" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -1273,13 +1423,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
       </c>
       <c r="R3" s="6"/>
     </row>
@@ -1288,13 +1438,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
       </c>
       <c r="R4" s="6"/>
     </row>
@@ -1303,13 +1453,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
       </c>
       <c r="R5" s="6"/>
     </row>
@@ -1318,13 +1468,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
       </c>
       <c r="R6" s="6"/>
     </row>
@@ -1333,13 +1483,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
       </c>
       <c r="R7" s="6"/>
     </row>
@@ -1348,13 +1498,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
       </c>
       <c r="R8" s="6"/>
     </row>
@@ -1363,13 +1513,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
       </c>
       <c r="R9" s="6"/>
     </row>
@@ -1378,13 +1528,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
       </c>
       <c r="R10" s="6"/>
     </row>
@@ -1393,13 +1543,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
       </c>
       <c r="R11" s="6"/>
     </row>
@@ -1408,13 +1558,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1462,7 +1612,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1487,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985F0CD3-3E83-B141-A42F-FDCB2F81F258}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1501,36 +1651,36 @@
         <v>3</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B2" s="20">
         <v>3</v>
@@ -1584,7 +1734,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1721,96 +1871,676 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="J5" s="6"/>
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>138</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1.05</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.95</v>
+      </c>
+      <c r="H5">
+        <v>1.05</v>
+      </c>
+      <c r="I5">
+        <v>0.95</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="J6" s="6"/>
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>138</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1.05</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.95</v>
+      </c>
+      <c r="H6">
+        <v>1.05</v>
+      </c>
+      <c r="I6">
+        <v>0.95</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="J7" s="6"/>
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>138</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1.05</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.95</v>
+      </c>
+      <c r="H7">
+        <v>1.05</v>
+      </c>
+      <c r="I7">
+        <v>0.95</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="J8" s="6"/>
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>138</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1.05</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.95</v>
+      </c>
+      <c r="H8">
+        <v>1.05</v>
+      </c>
+      <c r="I8">
+        <v>0.95</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="J9" s="6"/>
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>138</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1.05</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.95</v>
+      </c>
+      <c r="H9">
+        <v>1.05</v>
+      </c>
+      <c r="I9">
+        <v>0.95</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="J10" s="6"/>
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>138</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1.05</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.95</v>
+      </c>
+      <c r="H10">
+        <v>1.05</v>
+      </c>
+      <c r="I10">
+        <v>0.95</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="J11" s="6"/>
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>138</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1.05</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.95</v>
+      </c>
+      <c r="H11">
+        <v>1.05</v>
+      </c>
+      <c r="I11">
+        <v>0.95</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="J12" s="6"/>
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>230</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1.05</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.95</v>
+      </c>
+      <c r="H12">
+        <v>1.05</v>
+      </c>
+      <c r="I12">
+        <v>0.95</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="J13" s="6"/>
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>230</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1.05</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.95</v>
+      </c>
+      <c r="H13">
+        <v>1.05</v>
+      </c>
+      <c r="I13">
+        <v>0.95</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="J14" s="6"/>
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>230</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1.05</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.95</v>
+      </c>
+      <c r="H14">
+        <v>1.05</v>
+      </c>
+      <c r="I14">
+        <v>0.95</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="J15" s="6"/>
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>230</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1.05</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.95</v>
+      </c>
+      <c r="H15">
+        <v>1.05</v>
+      </c>
+      <c r="I15">
+        <v>0.95</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="J16" s="6"/>
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>230</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1.05</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.95</v>
+      </c>
+      <c r="H16">
+        <v>1.05</v>
+      </c>
+      <c r="I16">
+        <v>0.95</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="J17" s="6"/>
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>230</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1.05</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0.95</v>
+      </c>
+      <c r="H17">
+        <v>1.05</v>
+      </c>
+      <c r="I17">
+        <v>0.95</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="J18" s="6"/>
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>230</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1.05</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0.95</v>
+      </c>
+      <c r="H18">
+        <v>1.05</v>
+      </c>
+      <c r="I18">
+        <v>0.95</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="J19" s="6"/>
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>230</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1.05</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0.95</v>
+      </c>
+      <c r="H19">
+        <v>1.05</v>
+      </c>
+      <c r="I19">
+        <v>0.95</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="J20" s="6"/>
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>230</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1.05</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0.95</v>
+      </c>
+      <c r="H20">
+        <v>1.05</v>
+      </c>
+      <c r="I20">
+        <v>0.95</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="J21" s="6"/>
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>230</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1.05</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0.95</v>
+      </c>
+      <c r="H21">
+        <v>1.05</v>
+      </c>
+      <c r="I21">
+        <v>0.95</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="J22" s="6"/>
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>230</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1.05</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0.95</v>
+      </c>
+      <c r="H22">
+        <v>1.05</v>
+      </c>
+      <c r="I22">
+        <v>0.95</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="J23" s="6"/>
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>230</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1.05</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0.95</v>
+      </c>
+      <c r="H23">
+        <v>1.05</v>
+      </c>
+      <c r="I23">
+        <v>0.95</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="J24" s="6"/>
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>230</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1.05</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0.95</v>
+      </c>
+      <c r="H24">
+        <v>1.05</v>
+      </c>
+      <c r="I24">
+        <v>0.95</v>
+      </c>
+      <c r="J24" s="6">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="24"/>
+      <c r="A25" s="21">
+        <v>24</v>
+      </c>
+      <c r="B25" s="22">
+        <v>230</v>
+      </c>
+      <c r="C25" s="22">
+        <v>1</v>
+      </c>
+      <c r="D25" s="22">
+        <v>1</v>
+      </c>
+      <c r="E25" s="23">
+        <v>1.05</v>
+      </c>
+      <c r="F25" s="22">
+        <v>0</v>
+      </c>
+      <c r="G25" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="H25" s="22">
+        <v>1.05</v>
+      </c>
+      <c r="I25" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="J25" s="24">
+        <v>1.05</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1836,33 +2566,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
@@ -1873,16 +2603,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1893,16 +2623,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1912,64 +2642,284 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="F5" s="4"/>
+      <c r="A5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>74</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>7000</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="F6" s="4"/>
+      <c r="A6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>71</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>7000</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="F7" s="4"/>
+      <c r="A7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>136</v>
+      </c>
+      <c r="D7">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>7000</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="F8" s="4"/>
+      <c r="A8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>125</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>7000</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>171</v>
+      </c>
+      <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>7000</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>175</v>
+      </c>
+      <c r="D10">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>7000</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>195</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>7000</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>265</v>
+      </c>
+      <c r="D12">
+        <v>54</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>7000</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="F13" s="4"/>
+      <c r="A13" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>194</v>
+      </c>
+      <c r="D13">
+        <v>39</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>7000</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="F14" s="4"/>
+      <c r="A14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>317</v>
+      </c>
+      <c r="D14">
+        <v>64</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>7000</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="F15" s="4"/>
+      <c r="A15" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>7000</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="F16" s="4"/>
+      <c r="A16" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>333</v>
+      </c>
+      <c r="D16">
+        <v>68</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>7000</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="F17" s="4"/>
+      <c r="A17" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>181</v>
+      </c>
+      <c r="D17">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>7000</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="4"/>
+      <c r="A18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="8">
+        <v>20</v>
+      </c>
+      <c r="C18" s="8">
+        <v>128</v>
+      </c>
+      <c r="D18" s="8">
+        <v>26</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>7000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1982,7 +2932,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1995,75 +2945,75 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.46110000000000001</v>
+      </c>
+      <c r="H2" s="3">
+        <v>200</v>
+      </c>
+      <c r="I2" s="3">
+        <v>175</v>
+      </c>
+      <c r="J2" s="3">
+        <v>-360</v>
+      </c>
+      <c r="K2" s="3">
+        <v>360</v>
       </c>
       <c r="L2" s="3">
         <v>0</v>
@@ -2074,37 +3024,37 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.2112</v>
+      </c>
+      <c r="G3">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="H3">
+        <v>220</v>
+      </c>
+      <c r="I3">
+        <v>175</v>
+      </c>
+      <c r="J3">
+        <v>-360</v>
+      </c>
+      <c r="K3">
+        <v>360</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2115,37 +3065,37 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" t="s">
-        <v>51</v>
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2.18E-2</v>
+      </c>
+      <c r="F4">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="G4">
+        <v>2.29E-2</v>
+      </c>
+      <c r="H4">
+        <v>220</v>
+      </c>
+      <c r="I4">
+        <v>175</v>
+      </c>
+      <c r="J4">
+        <v>-360</v>
+      </c>
+      <c r="K4">
+        <v>360</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2155,135 +3105,1234 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="M5" s="4"/>
+      <c r="A5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.12670000000000001</v>
+      </c>
+      <c r="G5">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="H5">
+        <v>220</v>
+      </c>
+      <c r="I5">
+        <v>175</v>
+      </c>
+      <c r="J5">
+        <v>-360</v>
+      </c>
+      <c r="K5">
+        <v>360</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="M6" s="6"/>
+      <c r="A6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.192</v>
+      </c>
+      <c r="G6">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H6">
+        <v>220</v>
+      </c>
+      <c r="I6">
+        <v>175</v>
+      </c>
+      <c r="J6">
+        <v>-360</v>
+      </c>
+      <c r="K6">
+        <v>360</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="M7" s="6"/>
+      <c r="A7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="G7">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="H7">
+        <v>220</v>
+      </c>
+      <c r="I7">
+        <v>175</v>
+      </c>
+      <c r="J7">
+        <v>-360</v>
+      </c>
+      <c r="K7">
+        <v>360</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="M8" s="4"/>
+      <c r="A8" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.1037</v>
+      </c>
+      <c r="G8">
+        <v>2.81E-2</v>
+      </c>
+      <c r="H8">
+        <v>220</v>
+      </c>
+      <c r="I8">
+        <v>175</v>
+      </c>
+      <c r="J8">
+        <v>-360</v>
+      </c>
+      <c r="K8">
+        <v>360</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="M9" s="6"/>
+      <c r="A9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="F9">
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="G9">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="H9">
+        <v>220</v>
+      </c>
+      <c r="I9">
+        <v>175</v>
+      </c>
+      <c r="J9">
+        <v>-360</v>
+      </c>
+      <c r="K9">
+        <v>360</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="M10" s="6"/>
+      <c r="A10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="F10">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="G10">
+        <v>2.4590000000000001</v>
+      </c>
+      <c r="H10">
+        <v>200</v>
+      </c>
+      <c r="I10">
+        <v>175</v>
+      </c>
+      <c r="J10">
+        <v>-360</v>
+      </c>
+      <c r="K10">
+        <v>360</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="M11" s="4"/>
+      <c r="A11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="F11">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="G11">
+        <v>1.66E-2</v>
+      </c>
+      <c r="H11">
+        <v>220</v>
+      </c>
+      <c r="I11">
+        <v>175</v>
+      </c>
+      <c r="J11">
+        <v>-360</v>
+      </c>
+      <c r="K11">
+        <v>360</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="M12" s="6"/>
+      <c r="A12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.1651</v>
+      </c>
+      <c r="G12">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="H12">
+        <v>220</v>
+      </c>
+      <c r="I12">
+        <v>175</v>
+      </c>
+      <c r="J12">
+        <v>-360</v>
+      </c>
+      <c r="K12">
+        <v>360</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="M13" s="6"/>
+      <c r="A13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.1651</v>
+      </c>
+      <c r="G13">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="H13">
+        <v>220</v>
+      </c>
+      <c r="I13">
+        <v>175</v>
+      </c>
+      <c r="J13">
+        <v>-360</v>
+      </c>
+      <c r="K13">
+        <v>360</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="M14" s="4"/>
+      <c r="A14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="F14">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="G14">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="H14">
+        <v>625</v>
+      </c>
+      <c r="I14">
+        <v>500</v>
+      </c>
+      <c r="J14">
+        <v>-360</v>
+      </c>
+      <c r="K14">
+        <v>360</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="M15" s="6"/>
+      <c r="A15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="F15">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="G15">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="H15">
+        <v>625</v>
+      </c>
+      <c r="I15">
+        <v>500</v>
+      </c>
+      <c r="J15">
+        <v>-360</v>
+      </c>
+      <c r="K15">
+        <v>360</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="M16" s="6"/>
+      <c r="A16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="F16">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="G16">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="H16">
+        <v>625</v>
+      </c>
+      <c r="I16">
+        <v>500</v>
+      </c>
+      <c r="J16">
+        <v>-360</v>
+      </c>
+      <c r="K16">
+        <v>360</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="M17" s="4"/>
+      <c r="A17" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1.24E-2</v>
+      </c>
+      <c r="F17">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="H17">
+        <v>625</v>
+      </c>
+      <c r="I17">
+        <v>500</v>
+      </c>
+      <c r="J17">
+        <v>-360</v>
+      </c>
+      <c r="K17">
+        <v>360</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="M18" s="6"/>
+      <c r="A18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1.11E-2</v>
+      </c>
+      <c r="F18">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="H18">
+        <v>625</v>
+      </c>
+      <c r="I18">
+        <v>500</v>
+      </c>
+      <c r="J18">
+        <v>-360</v>
+      </c>
+      <c r="K18">
+        <v>360</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="M19" s="6"/>
+      <c r="A19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F19">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="G19">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="H19">
+        <v>625</v>
+      </c>
+      <c r="I19">
+        <v>500</v>
+      </c>
+      <c r="J19">
+        <v>-360</v>
+      </c>
+      <c r="K19">
+        <v>360</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="M20" s="4"/>
+      <c r="A20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="F20">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="G20">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="H20">
+        <v>625</v>
+      </c>
+      <c r="I20">
+        <v>500</v>
+      </c>
+      <c r="J20">
+        <v>-360</v>
+      </c>
+      <c r="K20">
+        <v>360</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="M21" s="6"/>
+      <c r="A21" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>6.3E-3</v>
+      </c>
+      <c r="F21">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G21">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H21">
+        <v>625</v>
+      </c>
+      <c r="I21">
+        <v>500</v>
+      </c>
+      <c r="J21">
+        <v>-360</v>
+      </c>
+      <c r="K21">
+        <v>360</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="M22" s="6"/>
+      <c r="A22" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>6.3E-3</v>
+      </c>
+      <c r="F22">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G22">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H22">
+        <v>625</v>
+      </c>
+      <c r="I22">
+        <v>500</v>
+      </c>
+      <c r="J22">
+        <v>-360</v>
+      </c>
+      <c r="K22">
+        <v>360</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="M23" s="4"/>
+      <c r="A23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="F23">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="G23">
+        <v>0.1091</v>
+      </c>
+      <c r="H23">
+        <v>625</v>
+      </c>
+      <c r="I23">
+        <v>500</v>
+      </c>
+      <c r="J23">
+        <v>-360</v>
+      </c>
+      <c r="K23">
+        <v>360</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="M24" s="6"/>
+      <c r="A24" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>3.3E-3</v>
+      </c>
+      <c r="F24">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="G24">
+        <v>5.45E-2</v>
+      </c>
+      <c r="H24">
+        <v>625</v>
+      </c>
+      <c r="I24">
+        <v>500</v>
+      </c>
+      <c r="J24">
+        <v>-360</v>
+      </c>
+      <c r="K24">
+        <v>360</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="M25" s="6"/>
+      <c r="A25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F25">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="G25">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="H25">
+        <v>625</v>
+      </c>
+      <c r="I25">
+        <v>500</v>
+      </c>
+      <c r="J25">
+        <v>-360</v>
+      </c>
+      <c r="K25">
+        <v>360</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="M26" s="4"/>
+      <c r="A26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1.8E-3</v>
+      </c>
+      <c r="F26">
+        <v>1.44E-2</v>
+      </c>
+      <c r="G26">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="H26">
+        <v>625</v>
+      </c>
+      <c r="I26">
+        <v>500</v>
+      </c>
+      <c r="J26">
+        <v>-360</v>
+      </c>
+      <c r="K26">
+        <v>360</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
-      <c r="M27" s="6"/>
+      <c r="A27" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1.35E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.1053</v>
+      </c>
+      <c r="G27">
+        <v>0.22120000000000001</v>
+      </c>
+      <c r="H27">
+        <v>625</v>
+      </c>
+      <c r="I27">
+        <v>500</v>
+      </c>
+      <c r="J27">
+        <v>-360</v>
+      </c>
+      <c r="K27">
+        <v>360</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="M28" s="6"/>
+      <c r="A28" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>3.3E-3</v>
+      </c>
+      <c r="F28">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="G28">
+        <v>5.45E-2</v>
+      </c>
+      <c r="H28">
+        <v>625</v>
+      </c>
+      <c r="I28">
+        <v>500</v>
+      </c>
+      <c r="J28">
+        <v>-360</v>
+      </c>
+      <c r="K28">
+        <v>360</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" s="6">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
-      <c r="M29" s="4"/>
+      <c r="A29" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>3.3E-3</v>
+      </c>
+      <c r="F29">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="G29">
+        <v>5.45E-2</v>
+      </c>
+      <c r="H29">
+        <v>625</v>
+      </c>
+      <c r="I29">
+        <v>500</v>
+      </c>
+      <c r="J29">
+        <v>-360</v>
+      </c>
+      <c r="K29">
+        <v>360</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="M30" s="6"/>
+      <c r="A30" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="F30">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="G30">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="H30">
+        <v>625</v>
+      </c>
+      <c r="I30">
+        <v>500</v>
+      </c>
+      <c r="J30">
+        <v>-360</v>
+      </c>
+      <c r="K30">
+        <v>360</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="6">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
-      <c r="M31" s="6"/>
+      <c r="A31" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="F31">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="G31">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="H31">
+        <v>625</v>
+      </c>
+      <c r="I31">
+        <v>500</v>
+      </c>
+      <c r="J31">
+        <v>-360</v>
+      </c>
+      <c r="K31">
+        <v>360</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" s="6">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
-      <c r="M32" s="4"/>
+      <c r="A32" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2.8E-3</v>
+      </c>
+      <c r="F32">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="G32">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="H32">
+        <v>625</v>
+      </c>
+      <c r="I32">
+        <v>500</v>
+      </c>
+      <c r="J32">
+        <v>-360</v>
+      </c>
+      <c r="K32">
+        <v>360</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
-      <c r="M33" s="6"/>
+      <c r="A33" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2.8E-3</v>
+      </c>
+      <c r="F33">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="G33">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="H33">
+        <v>625</v>
+      </c>
+      <c r="I33">
+        <v>500</v>
+      </c>
+      <c r="J33">
+        <v>-360</v>
+      </c>
+      <c r="K33">
+        <v>360</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="6"/>
+      <c r="A34" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="8">
+        <v>21</v>
+      </c>
+      <c r="C34" s="8">
+        <v>22</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="F34" s="8">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0.1424</v>
+      </c>
+      <c r="H34" s="8">
+        <v>625</v>
+      </c>
+      <c r="I34" s="8">
+        <v>500</v>
+      </c>
+      <c r="J34" s="8">
+        <v>-360</v>
+      </c>
+      <c r="K34" s="8">
+        <v>360</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0</v>
+      </c>
+      <c r="M34" s="6">
+        <v>1E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2309,60 +4358,60 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="R1" s="10" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
@@ -2377,34 +4426,34 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H2" s="3">
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="P2" s="3">
         <v>1.1000000000000001</v>
@@ -2469,43 +4518,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="M1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2529,19 +4578,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -2549,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -2582,19 +4631,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2605,10 +4654,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2618,115 +4667,114 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="X1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="Y1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F9" si="0">0.5*(I2+J2)</f>
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>103</v>
+      <c r="K2">
+        <v>1.0349999999999999</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -2741,10 +4789,10 @@
         <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>12</v>
+        <v>89</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
       </c>
       <c r="R2">
         <v>1E-3</v>
@@ -2755,19 +4803,1636 @@
       <c r="T2">
         <v>100</v>
       </c>
-      <c r="U2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" t="s">
-        <v>105</v>
-      </c>
-      <c r="W2" t="s">
-        <v>106</v>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>130</v>
+      </c>
+      <c r="W2">
+        <v>400.68490000000003</v>
       </c>
       <c r="X2">
         <v>40</v>
       </c>
       <c r="Y2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1E-3</v>
+      </c>
+      <c r="S3">
+        <v>100</v>
+      </c>
+      <c r="T3">
+        <v>100</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>130</v>
+      </c>
+      <c r="W3">
+        <v>400.68490000000003</v>
+      </c>
+      <c r="X3">
+        <v>40</v>
+      </c>
+      <c r="Y3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>76</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4">
+        <v>15.2</v>
+      </c>
+      <c r="H4">
+        <v>76</v>
+      </c>
+      <c r="I4">
+        <v>-25</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1E-3</v>
+      </c>
+      <c r="S4">
+        <v>100</v>
+      </c>
+      <c r="T4">
+        <v>100</v>
+      </c>
+      <c r="U4">
+        <v>1.4142E-2</v>
+      </c>
+      <c r="V4">
+        <v>16.081099999999999</v>
+      </c>
+      <c r="W4">
+        <v>212.30760000000001</v>
+      </c>
+      <c r="X4">
+        <v>40</v>
+      </c>
+      <c r="Y4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>76</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5">
+        <v>15.2</v>
+      </c>
+      <c r="H5">
+        <v>76</v>
+      </c>
+      <c r="I5">
+        <v>-25</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1E-3</v>
+      </c>
+      <c r="S5">
+        <v>100</v>
+      </c>
+      <c r="T5">
+        <v>100</v>
+      </c>
+      <c r="U5">
+        <v>1.4142E-2</v>
+      </c>
+      <c r="V5">
+        <v>16.081099999999999</v>
+      </c>
+      <c r="W5">
+        <v>212.30760000000001</v>
+      </c>
+      <c r="X5">
+        <v>40</v>
+      </c>
+      <c r="Y5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1E-3</v>
+      </c>
+      <c r="S6">
+        <v>100</v>
+      </c>
+      <c r="T6">
+        <v>100</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>130</v>
+      </c>
+      <c r="W6">
+        <v>400.68490000000003</v>
+      </c>
+      <c r="X6">
+        <v>40</v>
+      </c>
+      <c r="Y6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="M7">
+        <v>100</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1E-3</v>
+      </c>
+      <c r="S7">
+        <v>100</v>
+      </c>
+      <c r="T7">
+        <v>100</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>130</v>
+      </c>
+      <c r="W7">
+        <v>400.68490000000003</v>
+      </c>
+      <c r="X7">
+        <v>40</v>
+      </c>
+      <c r="Y7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>76</v>
+      </c>
+      <c r="F8">
+        <v>2.5</v>
+      </c>
+      <c r="G8">
+        <v>15.2</v>
+      </c>
+      <c r="H8">
+        <v>76</v>
+      </c>
+      <c r="I8">
+        <v>-25</v>
+      </c>
+      <c r="J8">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1E-3</v>
+      </c>
+      <c r="S8">
+        <v>100</v>
+      </c>
+      <c r="T8">
+        <v>100</v>
+      </c>
+      <c r="U8">
+        <v>1.4142E-2</v>
+      </c>
+      <c r="V8">
+        <v>16.081099999999999</v>
+      </c>
+      <c r="W8">
+        <v>212.30760000000001</v>
+      </c>
+      <c r="X8">
+        <v>40</v>
+      </c>
+      <c r="Y8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>76</v>
+      </c>
+      <c r="F9">
+        <v>2.5</v>
+      </c>
+      <c r="G9">
+        <v>15.2</v>
+      </c>
+      <c r="H9">
+        <v>76</v>
+      </c>
+      <c r="I9">
+        <v>-25</v>
+      </c>
+      <c r="J9">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9">
+        <v>100</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1E-3</v>
+      </c>
+      <c r="S9">
+        <v>100</v>
+      </c>
+      <c r="T9">
+        <v>100</v>
+      </c>
+      <c r="U9">
+        <v>1.4142E-2</v>
+      </c>
+      <c r="V9">
+        <v>16.081099999999999</v>
+      </c>
+      <c r="W9">
+        <v>212.30760000000001</v>
+      </c>
+      <c r="X9">
+        <v>40</v>
+      </c>
+      <c r="Y9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>57.054000000000002</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>60</v>
+      </c>
+      <c r="K10">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1E-3</v>
+      </c>
+      <c r="S10">
+        <v>100</v>
+      </c>
+      <c r="T10">
+        <v>100</v>
+      </c>
+      <c r="U10">
+        <v>5.2671999999999997E-2</v>
+      </c>
+      <c r="V10">
+        <v>43.661499999999997</v>
+      </c>
+      <c r="W10">
+        <v>781.52099999999996</v>
+      </c>
+      <c r="X10">
+        <v>40</v>
+      </c>
+      <c r="Y10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>57.054000000000002</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>60</v>
+      </c>
+      <c r="K11">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <v>100</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1E-3</v>
+      </c>
+      <c r="S11">
+        <v>100</v>
+      </c>
+      <c r="T11">
+        <v>100</v>
+      </c>
+      <c r="U11">
+        <v>5.2671999999999997E-2</v>
+      </c>
+      <c r="V11">
+        <v>43.661499999999997</v>
+      </c>
+      <c r="W11">
+        <v>781.52099999999996</v>
+      </c>
+      <c r="X11">
+        <v>40</v>
+      </c>
+      <c r="Y11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>57.054000000000002</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>60</v>
+      </c>
+      <c r="K12">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1E-3</v>
+      </c>
+      <c r="S12">
+        <v>100</v>
+      </c>
+      <c r="T12">
+        <v>100</v>
+      </c>
+      <c r="U12">
+        <v>5.2671999999999997E-2</v>
+      </c>
+      <c r="V12">
+        <v>43.661499999999997</v>
+      </c>
+      <c r="W12">
+        <v>781.52099999999996</v>
+      </c>
+      <c r="X12">
+        <v>40</v>
+      </c>
+      <c r="Y12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>76.278999999999996</v>
+      </c>
+      <c r="F13">
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <v>69</v>
+      </c>
+      <c r="H13">
+        <v>197</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>80</v>
+      </c>
+      <c r="K13">
+        <v>1.02</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13">
+        <v>100</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1E-3</v>
+      </c>
+      <c r="S13">
+        <v>100</v>
+      </c>
+      <c r="T13">
+        <v>100</v>
+      </c>
+      <c r="U13">
+        <v>7.1700000000000002E-3</v>
+      </c>
+      <c r="V13">
+        <v>48.580399999999997</v>
+      </c>
+      <c r="W13">
+        <v>832.75750000000005</v>
+      </c>
+      <c r="X13">
+        <v>40</v>
+      </c>
+      <c r="Y13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>76.278999999999996</v>
+      </c>
+      <c r="F14">
+        <v>40</v>
+      </c>
+      <c r="G14">
+        <v>69</v>
+      </c>
+      <c r="H14">
+        <v>197</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>80</v>
+      </c>
+      <c r="K14">
+        <v>1.02</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <v>100</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1E-3</v>
+      </c>
+      <c r="S14">
+        <v>100</v>
+      </c>
+      <c r="T14">
+        <v>100</v>
+      </c>
+      <c r="U14">
+        <v>7.1700000000000002E-3</v>
+      </c>
+      <c r="V14">
+        <v>48.580399999999997</v>
+      </c>
+      <c r="W14">
+        <v>832.75750000000005</v>
+      </c>
+      <c r="X14">
+        <v>40</v>
+      </c>
+      <c r="Y14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>76.278999999999996</v>
+      </c>
+      <c r="F15">
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <v>69</v>
+      </c>
+      <c r="H15">
+        <v>197</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>80</v>
+      </c>
+      <c r="K15">
+        <v>1.02</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1E-3</v>
+      </c>
+      <c r="S15">
+        <v>100</v>
+      </c>
+      <c r="T15">
+        <v>100</v>
+      </c>
+      <c r="U15">
+        <v>7.1700000000000002E-3</v>
+      </c>
+      <c r="V15">
+        <v>48.580399999999997</v>
+      </c>
+      <c r="W15">
+        <v>832.75750000000005</v>
+      </c>
+      <c r="X15">
+        <v>40</v>
+      </c>
+      <c r="Y15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>75</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>-50</v>
+      </c>
+      <c r="J16">
+        <v>200</v>
+      </c>
+      <c r="K16">
+        <v>0.98</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16">
+        <v>100</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1E-3</v>
+      </c>
+      <c r="S16">
+        <v>100</v>
+      </c>
+      <c r="T16">
+        <v>100</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>40</v>
+      </c>
+      <c r="Y16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2.4</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>2.4</v>
+      </c>
+      <c r="H17">
+        <v>12</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>1.014</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+      <c r="M17">
+        <v>100</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1E-3</v>
+      </c>
+      <c r="S17">
+        <v>100</v>
+      </c>
+      <c r="T17">
+        <v>100</v>
+      </c>
+      <c r="U17">
+        <v>0.32841199999999998</v>
+      </c>
+      <c r="V17">
+        <v>56.564</v>
+      </c>
+      <c r="W17">
+        <v>86.385199999999998</v>
+      </c>
+      <c r="X17">
+        <v>40</v>
+      </c>
+      <c r="Y17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2.4</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>2.4</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>1.014</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18">
+        <v>100</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1E-3</v>
+      </c>
+      <c r="S18">
+        <v>100</v>
+      </c>
+      <c r="T18">
+        <v>100</v>
+      </c>
+      <c r="U18">
+        <v>0.32841199999999998</v>
+      </c>
+      <c r="V18">
+        <v>56.564</v>
+      </c>
+      <c r="W18">
+        <v>86.385199999999998</v>
+      </c>
+      <c r="X18">
+        <v>40</v>
+      </c>
+      <c r="Y18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>2.4</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>2.4</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <v>1.014</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19">
+        <v>100</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1E-3</v>
+      </c>
+      <c r="S19">
+        <v>100</v>
+      </c>
+      <c r="T19">
+        <v>100</v>
+      </c>
+      <c r="U19">
+        <v>0.32841199999999998</v>
+      </c>
+      <c r="V19">
+        <v>56.564</v>
+      </c>
+      <c r="W19">
+        <v>86.385199999999998</v>
+      </c>
+      <c r="X19">
+        <v>40</v>
+      </c>
+      <c r="Y19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2.4</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>2.4</v>
+      </c>
+      <c r="H20">
+        <v>12</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <v>1.014</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+      <c r="M20">
+        <v>100</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1E-3</v>
+      </c>
+      <c r="S20">
+        <v>100</v>
+      </c>
+      <c r="T20">
+        <v>100</v>
+      </c>
+      <c r="U20">
+        <v>0.32841199999999998</v>
+      </c>
+      <c r="V20">
+        <v>56.564</v>
+      </c>
+      <c r="W20">
+        <v>86.385199999999998</v>
+      </c>
+      <c r="X20">
+        <v>40</v>
+      </c>
+      <c r="Y20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2.4</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>2.4</v>
+      </c>
+      <c r="H21">
+        <v>12</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>1.014</v>
+      </c>
+      <c r="L21">
+        <v>100</v>
+      </c>
+      <c r="M21">
+        <v>100</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1E-3</v>
+      </c>
+      <c r="S21">
+        <v>100</v>
+      </c>
+      <c r="T21">
+        <v>100</v>
+      </c>
+      <c r="U21">
+        <v>0.32841199999999998</v>
+      </c>
+      <c r="V21">
+        <v>56.564</v>
+      </c>
+      <c r="W21">
+        <v>86.385199999999998</v>
+      </c>
+      <c r="X21">
+        <v>40</v>
+      </c>
+      <c r="Y21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>155</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>54.3</v>
+      </c>
+      <c r="H22">
+        <v>155</v>
+      </c>
+      <c r="I22">
+        <v>-50</v>
+      </c>
+      <c r="J22">
+        <v>80</v>
+      </c>
+      <c r="K22">
+        <v>1.014</v>
+      </c>
+      <c r="L22">
+        <v>100</v>
+      </c>
+      <c r="M22">
+        <v>100</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1E-3</v>
+      </c>
+      <c r="S22">
+        <v>100</v>
+      </c>
+      <c r="T22">
+        <v>100</v>
+      </c>
+      <c r="U22">
+        <v>8.3420000000000005E-3</v>
+      </c>
+      <c r="V22">
+        <v>12.388299999999999</v>
+      </c>
+      <c r="W22">
+        <v>382.23910000000001</v>
+      </c>
+      <c r="X22">
+        <v>40</v>
+      </c>
+      <c r="Y22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>155</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>54.3</v>
+      </c>
+      <c r="H23">
+        <v>155</v>
+      </c>
+      <c r="I23">
+        <v>-50</v>
+      </c>
+      <c r="J23">
+        <v>80</v>
+      </c>
+      <c r="K23">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="L23">
+        <v>100</v>
+      </c>
+      <c r="M23">
+        <v>100</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1E-3</v>
+      </c>
+      <c r="S23">
+        <v>100</v>
+      </c>
+      <c r="T23">
+        <v>100</v>
+      </c>
+      <c r="U23">
+        <v>8.3420000000000005E-3</v>
+      </c>
+      <c r="V23">
+        <v>12.388299999999999</v>
+      </c>
+      <c r="W23">
+        <v>382.23910000000001</v>
+      </c>
+      <c r="X23">
+        <v>40</v>
+      </c>
+      <c r="Y23">
         <v>80</v>
       </c>
     </row>
